--- a/data/pca/factorExposure/factorExposure_2018-07-02.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-07-02.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,79 +726,91 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.02223837426489601</v>
+        <v>0.02131564853635596</v>
       </c>
       <c r="C2">
-        <v>0.02094412704266604</v>
+        <v>-0.01884709023079543</v>
       </c>
       <c r="D2">
-        <v>0.03024949863186985</v>
+        <v>-0.02116042092743614</v>
       </c>
       <c r="E2">
-        <v>-0.004797748613048118</v>
+        <v>-0.01582935811789301</v>
       </c>
       <c r="F2">
-        <v>-0.1100080446873435</v>
+        <v>0.003726189564971484</v>
       </c>
       <c r="G2">
-        <v>0.05126570259761097</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>-0.05168434443403597</v>
+      </c>
+      <c r="H2">
+        <v>0.05030149749989769</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>0.10321647846083</v>
+        <v>0.08024955379809813</v>
       </c>
       <c r="C3">
-        <v>-0.04253994375413118</v>
+        <v>0.01203802592632018</v>
       </c>
       <c r="D3">
-        <v>0.08923180868963684</v>
+        <v>-0.02698318233402197</v>
       </c>
       <c r="E3">
-        <v>-0.003550801887208186</v>
+        <v>-0.01298224653189243</v>
       </c>
       <c r="F3">
-        <v>-0.393053179183179</v>
+        <v>-0.04506645687736537</v>
       </c>
       <c r="G3">
-        <v>0.1606698151066167</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>-0.1765964034881946</v>
+      </c>
+      <c r="H3">
+        <v>0.1638615402311966</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.04564792655384773</v>
+        <v>0.04359090347832401</v>
       </c>
       <c r="C4">
-        <v>0.02316599664552529</v>
+        <v>-0.005364561006288877</v>
       </c>
       <c r="D4">
-        <v>-0.01484436386368142</v>
+        <v>-0.04672044021919663</v>
       </c>
       <c r="E4">
-        <v>0.04875995381771282</v>
+        <v>0.02370517764658648</v>
       </c>
       <c r="F4">
-        <v>-0.08083399524153474</v>
+        <v>0.04779113526977445</v>
       </c>
       <c r="G4">
-        <v>0.06195324670946883</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>-0.04122698942925118</v>
+      </c>
+      <c r="H4">
+        <v>0.05835522460980642</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,217 +830,247 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.01944151982668537</v>
+        <v>0.0250352539943708</v>
       </c>
       <c r="C6">
-        <v>0.01191586953984012</v>
+        <v>-0.004484404061744341</v>
       </c>
       <c r="D6">
-        <v>0.01295095944661542</v>
+        <v>-0.05096586775680013</v>
       </c>
       <c r="E6">
-        <v>0.01975409043034683</v>
+        <v>0.008665374632620453</v>
       </c>
       <c r="F6">
-        <v>-0.02463853173729264</v>
+        <v>0.02934417796522209</v>
       </c>
       <c r="G6">
-        <v>-0.006416932943759312</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>-0.01336098024431458</v>
+      </c>
+      <c r="H6">
+        <v>0.06489676125960681</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.02146965596328317</v>
+        <v>0.0215053357041227</v>
       </c>
       <c r="C7">
-        <v>0.0005023563747566641</v>
+        <v>-0.003037073152743606</v>
       </c>
       <c r="D7">
-        <v>0.01485272688316481</v>
+        <v>-0.02688583376648368</v>
       </c>
       <c r="E7">
-        <v>0.02731264629092421</v>
+        <v>0.04156922886174923</v>
       </c>
       <c r="F7">
-        <v>-0.0557785633640287</v>
+        <v>0.001191105459499972</v>
       </c>
       <c r="G7">
-        <v>0.06866287940952161</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>-0.02431985007747988</v>
+      </c>
+      <c r="H7">
+        <v>0.03632242850610311</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.01862495220738117</v>
+        <v>0.005479987356641333</v>
       </c>
       <c r="C8">
-        <v>0.01362897735580344</v>
+        <v>0.001415861940232859</v>
       </c>
       <c r="D8">
-        <v>0.008219495809309191</v>
+        <v>-0.01251258078481291</v>
       </c>
       <c r="E8">
-        <v>0.04389270195963733</v>
+        <v>0.007453285390470622</v>
       </c>
       <c r="F8">
-        <v>-0.1002317122014393</v>
+        <v>0.01567602562750748</v>
       </c>
       <c r="G8">
-        <v>0.05553014452040489</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>-0.04498228372942913</v>
+      </c>
+      <c r="H8">
+        <v>0.04571826535907386</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.03557045194499832</v>
+        <v>0.03512686607110211</v>
       </c>
       <c r="C9">
-        <v>0.01979942893646812</v>
+        <v>-0.001254729645294043</v>
       </c>
       <c r="D9">
-        <v>-0.005028293344325824</v>
+        <v>-0.03403558504297956</v>
       </c>
       <c r="E9">
-        <v>0.04202586782650444</v>
+        <v>0.01231079274151003</v>
       </c>
       <c r="F9">
-        <v>-0.08378779818020043</v>
+        <v>0.02307646039044271</v>
       </c>
       <c r="G9">
-        <v>0.06188965294681848</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>-0.04817551648900656</v>
+      </c>
+      <c r="H9">
+        <v>0.05409800856139153</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.03058403618298009</v>
+        <v>0.1033410444742184</v>
       </c>
       <c r="C10">
-        <v>-0.04088431491194033</v>
+        <v>0.0292550762968196</v>
       </c>
       <c r="D10">
-        <v>-0.08228491372679866</v>
+        <v>0.153241131832673</v>
       </c>
       <c r="E10">
-        <v>-0.1074617195223452</v>
+        <v>-0.01002920152212775</v>
       </c>
       <c r="F10">
-        <v>-0.04399303342629962</v>
+        <v>-0.04338850884289267</v>
       </c>
       <c r="G10">
-        <v>-0.02126091310891616</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>-0.02235201202635381</v>
+      </c>
+      <c r="H10">
+        <v>0.006484330243789138</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.03532072290118848</v>
+        <v>0.02019873596309902</v>
       </c>
       <c r="C11">
-        <v>0.01480414607357123</v>
+        <v>0.007792716776620131</v>
       </c>
       <c r="D11">
-        <v>0.01835205149649055</v>
+        <v>-0.03946791805626279</v>
       </c>
       <c r="E11">
-        <v>0.03188444197069706</v>
+        <v>-0.0006481131754861416</v>
       </c>
       <c r="F11">
-        <v>-0.04497083969630253</v>
+        <v>0.009012781334358542</v>
       </c>
       <c r="G11">
-        <v>0.02793680918671257</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>-0.02562243421594751</v>
+      </c>
+      <c r="H11">
+        <v>0.0460524367996142</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.04333751300491005</v>
+        <v>0.02937866619937257</v>
       </c>
       <c r="C12">
-        <v>0.01606096168418296</v>
+        <v>0.006305383356237046</v>
       </c>
       <c r="D12">
-        <v>0.01109340865166964</v>
+        <v>-0.04043107048140152</v>
       </c>
       <c r="E12">
-        <v>0.03995715533119231</v>
+        <v>0.009406623678122131</v>
       </c>
       <c r="F12">
-        <v>-0.03320534578176008</v>
+        <v>0.0159259058323881</v>
       </c>
       <c r="G12">
-        <v>0.0177924339982515</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>-0.01033183525082727</v>
+      </c>
+      <c r="H12">
+        <v>0.02526220699272182</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.01531209758851512</v>
+        <v>0.02497497857766167</v>
       </c>
       <c r="C13">
-        <v>0.01985665384906138</v>
+        <v>-0.01481505566759406</v>
       </c>
       <c r="D13">
-        <v>0.01561862884846134</v>
+        <v>0.001654935943398738</v>
       </c>
       <c r="E13">
-        <v>-0.001558939812112041</v>
+        <v>-0.01251641595453415</v>
       </c>
       <c r="F13">
-        <v>-0.07741708218950785</v>
+        <v>0.007731395357656364</v>
       </c>
       <c r="G13">
-        <v>0.04198323645820042</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>-0.05560178939809809</v>
+      </c>
+      <c r="H13">
+        <v>0.05970362726809225</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.01444353317908339</v>
+        <v>0.01669863205656318</v>
       </c>
       <c r="C14">
-        <v>0.009082775304192483</v>
+        <v>-0.0008782518627167339</v>
       </c>
       <c r="D14">
-        <v>-0.004726138943612222</v>
+        <v>-0.004731047573057343</v>
       </c>
       <c r="E14">
-        <v>0.03849875776378942</v>
+        <v>0.01371956057594605</v>
       </c>
       <c r="F14">
-        <v>-0.0507325935324997</v>
+        <v>0.01194177063071353</v>
       </c>
       <c r="G14">
-        <v>0.06870034150268596</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>-0.04259931530741248</v>
+      </c>
+      <c r="H14">
+        <v>0.004576940338060349</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1045,33 +1090,39 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.02691697364778534</v>
+        <v>0.02168180955169788</v>
       </c>
       <c r="C16">
-        <v>0.01844893262964504</v>
+        <v>0.008386327571995133</v>
       </c>
       <c r="D16">
-        <v>0.01801267847847603</v>
+        <v>-0.03486543954074395</v>
       </c>
       <c r="E16">
-        <v>0.02413008581640583</v>
+        <v>0.003173156955544319</v>
       </c>
       <c r="F16">
-        <v>-0.05163417209835771</v>
+        <v>0.01506554397927811</v>
       </c>
       <c r="G16">
-        <v>0.03064058040060961</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>-0.02277336942058034</v>
+      </c>
+      <c r="H16">
+        <v>0.03923422754551942</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1142,13 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,79 +1168,91 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.04816706932997664</v>
+        <v>0.03435149499810462</v>
       </c>
       <c r="C19">
-        <v>0.01782918827622308</v>
+        <v>-0.0004357136881192924</v>
       </c>
       <c r="D19">
-        <v>0.01637799587252587</v>
+        <v>-0.02245752346421765</v>
       </c>
       <c r="E19">
-        <v>0.03878388048016362</v>
+        <v>0.00607574217676221</v>
       </c>
       <c r="F19">
-        <v>-0.1023985335565451</v>
+        <v>0.01738965002462228</v>
       </c>
       <c r="G19">
-        <v>0.0313693874928323</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>-0.05681141720596888</v>
+      </c>
+      <c r="H19">
+        <v>0.07593531884463958</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.0007510897107716058</v>
+        <v>0.008888392042755008</v>
       </c>
       <c r="C20">
-        <v>0.01180555527323651</v>
+        <v>-0.006929983977769104</v>
       </c>
       <c r="D20">
-        <v>-0.001918158324345503</v>
+        <v>-0.008116431215037089</v>
       </c>
       <c r="E20">
-        <v>0.03120835939407999</v>
+        <v>0.004142987281610899</v>
       </c>
       <c r="F20">
-        <v>-0.07174216943750122</v>
+        <v>0.01026039991345929</v>
       </c>
       <c r="G20">
-        <v>0.07224905964389451</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>-0.0486518613572068</v>
+      </c>
+      <c r="H20">
+        <v>0.0160659931139312</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.0053804254602202</v>
+        <v>0.01427009194216255</v>
       </c>
       <c r="C21">
-        <v>-0.01650986853713059</v>
+        <v>-0.008880200218403474</v>
       </c>
       <c r="D21">
-        <v>0.01140397956036631</v>
+        <v>-0.005851600868634061</v>
       </c>
       <c r="E21">
-        <v>0.02187155320790913</v>
+        <v>0.01619408115804717</v>
       </c>
       <c r="F21">
-        <v>-0.04861144314480857</v>
+        <v>-0.001675820208985175</v>
       </c>
       <c r="G21">
-        <v>0.02569087494085045</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>-0.04684298885444287</v>
+      </c>
+      <c r="H21">
+        <v>0.0344308140726404</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1206,10 +1272,13 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1229,263 +1298,299 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.03116275603297076</v>
+        <v>0.019271846933048</v>
       </c>
       <c r="C24">
-        <v>0.0200636671551227</v>
+        <v>0.002668063131903937</v>
       </c>
       <c r="D24">
-        <v>0.009626539516734464</v>
+        <v>-0.03463437660228957</v>
       </c>
       <c r="E24">
-        <v>0.009411661282062618</v>
+        <v>0.0005206823635554775</v>
       </c>
       <c r="F24">
-        <v>-0.04345563083920018</v>
+        <v>0.009325182740641423</v>
       </c>
       <c r="G24">
-        <v>0.02602100959261415</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>-0.01939170871382255</v>
+      </c>
+      <c r="H24">
+        <v>0.04286581908413219</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.03077128603426022</v>
+        <v>0.02896122154440354</v>
       </c>
       <c r="C25">
-        <v>0.01185079412791098</v>
+        <v>0.0006022490818450465</v>
       </c>
       <c r="D25">
-        <v>0.01743579089552667</v>
+        <v>-0.03416337069270169</v>
       </c>
       <c r="E25">
-        <v>0.03594232271967319</v>
+        <v>0.004512163676123645</v>
       </c>
       <c r="F25">
-        <v>-0.04512947455595222</v>
+        <v>0.01553656014984104</v>
       </c>
       <c r="G25">
-        <v>0.009886053495389438</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>-0.02314563002283542</v>
+      </c>
+      <c r="H25">
+        <v>0.04531734339159842</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.02081042240904115</v>
+        <v>0.02024555409224987</v>
       </c>
       <c r="C26">
-        <v>0.003975764359353325</v>
+        <v>-0.01728344583587055</v>
       </c>
       <c r="D26">
-        <v>0.03056102943413378</v>
+        <v>-0.0028206066317724</v>
       </c>
       <c r="E26">
-        <v>0.01646883322691869</v>
+        <v>-0.001377625568914641</v>
       </c>
       <c r="F26">
-        <v>-0.06313303472237179</v>
+        <v>-0.000562312067062405</v>
       </c>
       <c r="G26">
-        <v>0.03747120958343866</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>-0.03192122067586889</v>
+      </c>
+      <c r="H26">
+        <v>0.02210963178918793</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>0.06176083359277662</v>
+        <v>0.02455818906230487</v>
       </c>
       <c r="C27">
-        <v>0.02943384360048398</v>
+        <v>0.009314711639352758</v>
       </c>
       <c r="D27">
-        <v>-0.02566863968406482</v>
+        <v>-0.01498385526246</v>
       </c>
       <c r="E27">
-        <v>0.03619450763099908</v>
+        <v>0.007832393561810034</v>
       </c>
       <c r="F27">
-        <v>-0.05432273573343085</v>
+        <v>0.01627254940971283</v>
       </c>
       <c r="G27">
-        <v>0.04705332106308629</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>-0.01863656994421397</v>
+      </c>
+      <c r="H27">
+        <v>0.005472141261538338</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.04725735600813379</v>
+        <v>0.153361981053081</v>
       </c>
       <c r="C28">
-        <v>-0.04344156912554196</v>
+        <v>0.02996334161953939</v>
       </c>
       <c r="D28">
-        <v>-0.1147934883370534</v>
+        <v>0.2230606693396637</v>
       </c>
       <c r="E28">
-        <v>-0.1493939889901112</v>
+        <v>-0.008253545662704182</v>
       </c>
       <c r="F28">
-        <v>-0.03963972798523376</v>
+        <v>-0.04802902100878203</v>
       </c>
       <c r="G28">
-        <v>-0.002255392699126387</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>-0.008021214727417875</v>
+      </c>
+      <c r="H28">
+        <v>-0.01427604669268866</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.02156619752218119</v>
+        <v>0.02167829954478431</v>
       </c>
       <c r="C29">
-        <v>0.01053406113897735</v>
+        <v>0.001281222157676854</v>
       </c>
       <c r="D29">
-        <v>-0.007190285147369418</v>
+        <v>-0.006194996791412311</v>
       </c>
       <c r="E29">
-        <v>0.05281112112739585</v>
+        <v>0.01376541985337719</v>
       </c>
       <c r="F29">
-        <v>-0.04296681129278363</v>
+        <v>0.01495413241121376</v>
       </c>
       <c r="G29">
-        <v>0.0590165035526035</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>-0.04063869582927637</v>
+      </c>
+      <c r="H29">
+        <v>0.0002682128440623503</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.09133126806683832</v>
+        <v>0.04970335227455176</v>
       </c>
       <c r="C30">
-        <v>0.06069757404055893</v>
+        <v>-0.005735736193335357</v>
       </c>
       <c r="D30">
-        <v>0.01814258489194943</v>
+        <v>-0.06972478092689753</v>
       </c>
       <c r="E30">
-        <v>0.0695301788433258</v>
+        <v>-0.02840968075777409</v>
       </c>
       <c r="F30">
-        <v>-0.09093039181476335</v>
+        <v>0.04918696018723157</v>
       </c>
       <c r="G30">
-        <v>0.06177573012151023</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>-0.0550016293118176</v>
+      </c>
+      <c r="H30">
+        <v>0.06661079209328415</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.06263011057943203</v>
+        <v>0.05450620039163614</v>
       </c>
       <c r="C31">
-        <v>0.02673601976260808</v>
+        <v>0.01436071105806772</v>
       </c>
       <c r="D31">
-        <v>0.02797780021269616</v>
+        <v>-0.02650902006698885</v>
       </c>
       <c r="E31">
-        <v>0.006144486080663325</v>
+        <v>-0.004252856703449331</v>
       </c>
       <c r="F31">
-        <v>-0.04014813129029368</v>
+        <v>0.0123552547231811</v>
       </c>
       <c r="G31">
-        <v>0.06683999112349005</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>-0.01674772458165426</v>
+      </c>
+      <c r="H31">
+        <v>0.01279346103445554</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.01740664585971486</v>
+        <v>0.01133355204861562</v>
       </c>
       <c r="C32">
-        <v>0.01779782450930606</v>
+        <v>0.01343309173466817</v>
       </c>
       <c r="D32">
-        <v>0.01310199787597701</v>
+        <v>-0.002715260838467673</v>
       </c>
       <c r="E32">
-        <v>0.08346652576929532</v>
+        <v>0.0315871875521733</v>
       </c>
       <c r="F32">
-        <v>-0.06374080074620567</v>
+        <v>0.03305316158804379</v>
       </c>
       <c r="G32">
-        <v>0.0501052688480375</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>-0.03370654731852971</v>
+      </c>
+      <c r="H32">
+        <v>0.06198493804118153</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.04979676627094946</v>
+        <v>0.03812481669377965</v>
       </c>
       <c r="C33">
-        <v>0.01186612683626393</v>
+        <v>0.0007724577799239998</v>
       </c>
       <c r="D33">
-        <v>0.04689451053102196</v>
+        <v>-0.03352535477791811</v>
       </c>
       <c r="E33">
-        <v>0.03731620137083185</v>
+        <v>-0.02357523712261108</v>
       </c>
       <c r="F33">
-        <v>-0.08602939705589442</v>
+        <v>0.001949290649095437</v>
       </c>
       <c r="G33">
-        <v>0.06538420073974133</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>-0.04613237060911767</v>
+      </c>
+      <c r="H33">
+        <v>0.0423502836331072</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.03320032457606912</v>
+        <v>0.02613391879919221</v>
       </c>
       <c r="C34">
-        <v>0.02121683229388709</v>
+        <v>0.01679912340893257</v>
       </c>
       <c r="D34">
-        <v>0.01263697499562789</v>
+        <v>-0.03524787599543542</v>
       </c>
       <c r="E34">
-        <v>0.0315430835113466</v>
+        <v>0.009445781245472483</v>
       </c>
       <c r="F34">
-        <v>-0.05754151965440681</v>
+        <v>0.01672993034850346</v>
       </c>
       <c r="G34">
-        <v>0.01895271054193578</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>-0.02061405072770138</v>
+      </c>
+      <c r="H34">
+        <v>0.03977363493271577</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1505,33 +1610,39 @@
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.01549459536596788</v>
+        <v>0.02098892728351788</v>
       </c>
       <c r="C36">
-        <v>0.004351517022602155</v>
+        <v>-0.003937853823279811</v>
       </c>
       <c r="D36">
-        <v>-0.0007219076611505168</v>
+        <v>-0.0005398278204227871</v>
       </c>
       <c r="E36">
-        <v>0.02975062352803361</v>
+        <v>0.006650066972293783</v>
       </c>
       <c r="F36">
-        <v>-0.03159961654347142</v>
+        <v>0.00348821775122372</v>
       </c>
       <c r="G36">
-        <v>0.03711164159006082</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>-0.01927632259185456</v>
+      </c>
+      <c r="H36">
+        <v>0.009781335899686737</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,171 +1662,195 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.002317351684784848</v>
+        <v>0.02242492386748518</v>
       </c>
       <c r="C38">
-        <v>-0.009498235714145648</v>
+        <v>0.01613354612836992</v>
       </c>
       <c r="D38">
-        <v>0.01179062481747412</v>
+        <v>-0.008384755664372299</v>
       </c>
       <c r="E38">
-        <v>-0.01826600815523819</v>
+        <v>-0.001283539560068159</v>
       </c>
       <c r="F38">
-        <v>-0.04121088139703767</v>
+        <v>0.008836759164101397</v>
       </c>
       <c r="G38">
-        <v>0.007719079154542003</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>-0.01882056005700132</v>
+      </c>
+      <c r="H38">
+        <v>0.03981312298816455</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.04091903880165274</v>
+        <v>0.01719943655870501</v>
       </c>
       <c r="C39">
-        <v>0.03795736193665965</v>
+        <v>0.0003668991250060437</v>
       </c>
       <c r="D39">
-        <v>0.02674966064404192</v>
+        <v>-0.07616171706882542</v>
       </c>
       <c r="E39">
-        <v>0.03644297551148069</v>
+        <v>-0.00142363550023279</v>
       </c>
       <c r="F39">
-        <v>-0.06698645045169072</v>
+        <v>0.02006461233189786</v>
       </c>
       <c r="G39">
-        <v>0.03160735059274803</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>-0.04202109606916175</v>
+      </c>
+      <c r="H39">
+        <v>0.07274014696280451</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.03676799129212312</v>
+        <v>0.0301918907799757</v>
       </c>
       <c r="C40">
-        <v>0.06375764164151335</v>
+        <v>0.0002935179033852783</v>
       </c>
       <c r="D40">
-        <v>0.03890557790745867</v>
+        <v>-0.02085254346083724</v>
       </c>
       <c r="E40">
-        <v>-0.007390181984826576</v>
+        <v>-0.02415551115758223</v>
       </c>
       <c r="F40">
-        <v>-0.07714263713826132</v>
+        <v>0.02717077047234491</v>
       </c>
       <c r="G40">
-        <v>0.05117085314041545</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>-0.026217851126839</v>
+      </c>
+      <c r="H40">
+        <v>0.06698169034616661</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.0001262187610539314</v>
+        <v>0.01173341913104014</v>
       </c>
       <c r="C41">
-        <v>-0.002075571737672257</v>
+        <v>-0.0003108660187032709</v>
       </c>
       <c r="D41">
-        <v>0.007480932472579497</v>
+        <v>0.01248444846284767</v>
       </c>
       <c r="E41">
-        <v>0.01010620877522836</v>
+        <v>-0.001977810880552635</v>
       </c>
       <c r="F41">
-        <v>-0.001575461154998814</v>
+        <v>-0.001699698394091257</v>
       </c>
       <c r="G41">
-        <v>0.0477495137439909</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>-0.003071085144642009</v>
+      </c>
+      <c r="H41">
+        <v>-0.005594978186917141</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>0.3625351047832222</v>
+        <v>0.1967016051385186</v>
       </c>
       <c r="C42">
-        <v>-0.6607713801980889</v>
+        <v>-0.07637360134806792</v>
       </c>
       <c r="D42">
-        <v>0.5458002621590702</v>
+        <v>-0.3538515971513447</v>
       </c>
       <c r="E42">
-        <v>-0.1532433523559871</v>
+        <v>-0.2310335441734176</v>
       </c>
       <c r="F42">
-        <v>0.262821412438966</v>
+        <v>-0.8460696804052297</v>
       </c>
       <c r="G42">
-        <v>0.07043239497897845</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>0.1978969310439818</v>
+      </c>
+      <c r="H42">
+        <v>-0.05330137236784056</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.006428891521539278</v>
+        <v>0.01199786535756609</v>
       </c>
       <c r="C43">
-        <v>-0.006715217132850517</v>
+        <v>-0.00146314392994323</v>
       </c>
       <c r="D43">
-        <v>0.01581024326253152</v>
+        <v>0.01294953247978259</v>
       </c>
       <c r="E43">
-        <v>0.01030325148964308</v>
+        <v>-0.006207012379971079</v>
       </c>
       <c r="F43">
-        <v>-0.01788338902667077</v>
+        <v>-0.008354193067193339</v>
       </c>
       <c r="G43">
-        <v>0.04496990433821064</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>-0.005074119035885648</v>
+      </c>
+      <c r="H43">
+        <v>0.002598562327943375</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.01466679780888771</v>
+        <v>0.01292934436320044</v>
       </c>
       <c r="C44">
-        <v>-0.007012557770790749</v>
+        <v>0.0007537372449780518</v>
       </c>
       <c r="D44">
-        <v>0.02018418007464093</v>
+        <v>-0.02309123674087774</v>
       </c>
       <c r="E44">
-        <v>0.01867270949903808</v>
+        <v>0.004849095673251425</v>
       </c>
       <c r="F44">
-        <v>-0.1077968554395031</v>
+        <v>-0.007433656621856214</v>
       </c>
       <c r="G44">
-        <v>0.08708238626249314</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>-0.03751834003961942</v>
+      </c>
+      <c r="H44">
+        <v>0.05840457603232865</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,79 +1870,91 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.01838134305119514</v>
+        <v>0.01801755578643499</v>
       </c>
       <c r="C46">
-        <v>0.01084596523176028</v>
+        <v>-0.00406325091250498</v>
       </c>
       <c r="D46">
-        <v>0.02405304201152296</v>
+        <v>-0.01323742083740435</v>
       </c>
       <c r="E46">
-        <v>0.04784751751102412</v>
+        <v>0.001615930584722148</v>
       </c>
       <c r="F46">
-        <v>-0.0569158567111138</v>
+        <v>0.01364728983872662</v>
       </c>
       <c r="G46">
-        <v>0.0669419499297977</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>-0.04638090476197371</v>
+      </c>
+      <c r="H46">
+        <v>0.01453303208955583</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.09456087025006608</v>
+        <v>0.07472624269487831</v>
       </c>
       <c r="C47">
-        <v>0.03305972799036039</v>
+        <v>0.02960117543963076</v>
       </c>
       <c r="D47">
-        <v>0.01178250038481812</v>
+        <v>-0.04571526355290399</v>
       </c>
       <c r="E47">
-        <v>0.02669165891215568</v>
+        <v>0.0008612030546304504</v>
       </c>
       <c r="F47">
-        <v>-0.01586478264971659</v>
+        <v>0.02327312760036333</v>
       </c>
       <c r="G47">
-        <v>0.08931859660961737</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>0.008232809533558736</v>
+      </c>
+      <c r="H47">
+        <v>-0.01951692619765972</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.01748577714281829</v>
+        <v>0.0224205219199776</v>
       </c>
       <c r="C48">
-        <v>0.005837544593044635</v>
+        <v>0.006615154288789673</v>
       </c>
       <c r="D48">
-        <v>0.01411700422695366</v>
+        <v>-0.007510708241236045</v>
       </c>
       <c r="E48">
-        <v>0.02561757873217773</v>
+        <v>0.001637255154708181</v>
       </c>
       <c r="F48">
-        <v>-0.04900038128227117</v>
+        <v>0.008063339961696572</v>
       </c>
       <c r="G48">
-        <v>0.02694743295731523</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>-0.02522844892029742</v>
+      </c>
+      <c r="H48">
+        <v>0.01937967697290497</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1827,56 +1974,65 @@
       <c r="G49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.08893029923443421</v>
+        <v>0.07338773919749175</v>
       </c>
       <c r="C50">
-        <v>0.02874617011307715</v>
+        <v>0.02684228596530018</v>
       </c>
       <c r="D50">
-        <v>0.02142621967240648</v>
+        <v>-0.0435611615845939</v>
       </c>
       <c r="E50">
-        <v>0.03250023853069366</v>
+        <v>0.01940932993917981</v>
       </c>
       <c r="F50">
-        <v>-0.05050338017857479</v>
+        <v>0.01621220055649435</v>
       </c>
       <c r="G50">
-        <v>0.0473356701926992</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>-0.01382405343679419</v>
+      </c>
+      <c r="H50">
+        <v>-0.0005836426789777637</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.01609292415487367</v>
+        <v>0.0182131813589447</v>
       </c>
       <c r="C51">
-        <v>-0.01288823399436793</v>
+        <v>-0.001822668168526898</v>
       </c>
       <c r="D51">
-        <v>0.01297377836009942</v>
+        <v>0.005987879472536809</v>
       </c>
       <c r="E51">
-        <v>-0.008983498440473974</v>
+        <v>0.0004633918276702633</v>
       </c>
       <c r="F51">
-        <v>-0.1128885338080191</v>
+        <v>-0.0136770607178325</v>
       </c>
       <c r="G51">
-        <v>0.05841714738485319</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>-0.04721546648828158</v>
+      </c>
+      <c r="H51">
+        <v>0.05243706821461846</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,217 +2052,247 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1044558074531617</v>
+        <v>0.09280791383449161</v>
       </c>
       <c r="C53">
-        <v>0.05193339007421474</v>
+        <v>0.03678015220946235</v>
       </c>
       <c r="D53">
-        <v>0.01669998197992909</v>
+        <v>-0.08177110975237059</v>
       </c>
       <c r="E53">
-        <v>0.04478204535890834</v>
+        <v>0.008100128597963639</v>
       </c>
       <c r="F53">
-        <v>0.04630782677124757</v>
+        <v>0.05114742369406436</v>
       </c>
       <c r="G53">
-        <v>0.02130923308460315</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>0.04197353657583609</v>
+      </c>
+      <c r="H53">
+        <v>-0.04204458852821651</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.02088301676936667</v>
+        <v>0.02623784939123478</v>
       </c>
       <c r="C54">
-        <v>0.0137909441680721</v>
+        <v>0.01132866492372511</v>
       </c>
       <c r="D54">
-        <v>-0.008819480518334708</v>
+        <v>0.01243394400909915</v>
       </c>
       <c r="E54">
-        <v>0.03661324445627268</v>
+        <v>0.007251333479809496</v>
       </c>
       <c r="F54">
-        <v>-0.04556732356616648</v>
+        <v>0.005647490804667479</v>
       </c>
       <c r="G54">
-        <v>0.07120212926624434</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>-0.03929850426468692</v>
+      </c>
+      <c r="H54">
+        <v>-0.002502304083280814</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.1042780287331962</v>
+        <v>0.07660910989999996</v>
       </c>
       <c r="C55">
-        <v>0.03003712149904371</v>
+        <v>0.03161812416113138</v>
       </c>
       <c r="D55">
-        <v>-0.00576596708863052</v>
+        <v>-0.07814802970169468</v>
       </c>
       <c r="E55">
-        <v>0.06614693972826338</v>
+        <v>0.01545082507343171</v>
       </c>
       <c r="F55">
-        <v>0.0347997931347588</v>
+        <v>0.04086175082599258</v>
       </c>
       <c r="G55">
-        <v>0.0702414885381859</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>0.01872419007631105</v>
+      </c>
+      <c r="H55">
+        <v>-0.05151703307141857</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1441678642466213</v>
+        <v>0.1252132879499191</v>
       </c>
       <c r="C56">
-        <v>0.09084549861409798</v>
+        <v>0.0555009526892087</v>
       </c>
       <c r="D56">
-        <v>-0.02096594351328308</v>
+        <v>-0.102672506092332</v>
       </c>
       <c r="E56">
-        <v>0.05795644097800932</v>
+        <v>0.01283325686821218</v>
       </c>
       <c r="F56">
-        <v>0.09773479024772186</v>
+        <v>0.08140413318319246</v>
       </c>
       <c r="G56">
-        <v>-0.03753760677903294</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>0.0757435228114882</v>
+      </c>
+      <c r="H56">
+        <v>-0.05119410877074621</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>0.04851525207499875</v>
+        <v>0.03846339406985606</v>
       </c>
       <c r="C57">
-        <v>0.001468388858365426</v>
+        <v>-0.01070576209542611</v>
       </c>
       <c r="D57">
-        <v>0.01468639842941873</v>
+        <v>-0.02958149780802021</v>
       </c>
       <c r="E57">
-        <v>-0.01351558133807381</v>
+        <v>-0.004008084247320886</v>
       </c>
       <c r="F57">
-        <v>-0.07980244833182878</v>
+        <v>0.01475744760316611</v>
       </c>
       <c r="G57">
-        <v>0.06417179514542029</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>-0.05613197480210853</v>
+      </c>
+      <c r="H57">
+        <v>0.0468758745897991</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.208250942658059</v>
+        <v>0.1464097278080831</v>
       </c>
       <c r="C58">
-        <v>0.06432765127514643</v>
+        <v>0.04233439184703396</v>
       </c>
       <c r="D58">
-        <v>0.1271790310144532</v>
+        <v>-0.1633734697170281</v>
       </c>
       <c r="E58">
-        <v>0.1169303789415666</v>
+        <v>-0.1702865762660427</v>
       </c>
       <c r="F58">
-        <v>-0.3318137229991918</v>
+        <v>-0.03163730107125279</v>
       </c>
       <c r="G58">
-        <v>0.1526246512099513</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>-0.8341533452394601</v>
+      </c>
+      <c r="H58">
+        <v>-0.3591805213590612</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.04993290171501017</v>
+        <v>0.1588370301793892</v>
       </c>
       <c r="C59">
-        <v>-0.0007064839274310048</v>
+        <v>0.03757709782630606</v>
       </c>
       <c r="D59">
-        <v>-0.1002595244772291</v>
+        <v>0.2202496979853099</v>
       </c>
       <c r="E59">
-        <v>-0.141847763341943</v>
+        <v>-0.02608008280501755</v>
       </c>
       <c r="F59">
-        <v>-0.06116088910129417</v>
+        <v>-0.02572271699977315</v>
       </c>
       <c r="G59">
-        <v>-0.01992197362344038</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>-0.009498727330958001</v>
+      </c>
+      <c r="H59">
+        <v>0.01681528504786189</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1658729742412622</v>
+        <v>0.1757028881030406</v>
       </c>
       <c r="C60">
-        <v>0.04036443201237142</v>
+        <v>0.03622609635528345</v>
       </c>
       <c r="D60">
-        <v>0.05857158632645038</v>
+        <v>-0.01686421113731336</v>
       </c>
       <c r="E60">
-        <v>-0.06354866283595387</v>
+        <v>-0.04723827701806164</v>
       </c>
       <c r="F60">
-        <v>-0.1826680114355803</v>
+        <v>0.0342994484187942</v>
       </c>
       <c r="G60">
-        <v>-0.2964922486669621</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>-0.03472025565531334</v>
+      </c>
+      <c r="H60">
+        <v>0.3935375211715278</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.02246927039901794</v>
+        <v>0.02078932458479377</v>
       </c>
       <c r="C61">
-        <v>0.007441590989086496</v>
+        <v>0.006022668792074564</v>
       </c>
       <c r="D61">
-        <v>0.01404860698276195</v>
+        <v>-0.04219119906817932</v>
       </c>
       <c r="E61">
-        <v>0.02012802174179419</v>
+        <v>0.005328315512288429</v>
       </c>
       <c r="F61">
-        <v>-0.03950704600647929</v>
+        <v>0.01686879782976573</v>
       </c>
       <c r="G61">
-        <v>0.01994331403352908</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>-0.02532041030167565</v>
+      </c>
+      <c r="H61">
+        <v>0.05171440756799699</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2126,171 +2312,195 @@
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.01412195097388156</v>
+        <v>0.01233135563424824</v>
       </c>
       <c r="C63">
-        <v>0.01151497562380798</v>
+        <v>-0.002403036435251469</v>
       </c>
       <c r="D63">
-        <v>0.01640312678758732</v>
+        <v>-0.01557119329835239</v>
       </c>
       <c r="E63">
-        <v>0.04368950156579685</v>
+        <v>0.005676452656664686</v>
       </c>
       <c r="F63">
-        <v>-0.01407804703278513</v>
+        <v>0.01494163400518892</v>
       </c>
       <c r="G63">
-        <v>0.04492219092831105</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>-0.01748212330504003</v>
+      </c>
+      <c r="H63">
+        <v>0.00404628805576453</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.03466399737054612</v>
+        <v>0.03873470161410939</v>
       </c>
       <c r="C64">
-        <v>0.004668576548310583</v>
+        <v>0.008985783542372706</v>
       </c>
       <c r="D64">
-        <v>-0.01189138760759838</v>
+        <v>-0.03842690570367242</v>
       </c>
       <c r="E64">
-        <v>0.05720732877363588</v>
+        <v>0.01162757875351771</v>
       </c>
       <c r="F64">
-        <v>-0.02140436453838249</v>
+        <v>0.004019728278938658</v>
       </c>
       <c r="G64">
-        <v>0.06472522869936166</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>-0.004914711200202893</v>
+      </c>
+      <c r="H64">
+        <v>0.03892231848065002</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.02041282636942903</v>
+        <v>0.02755396924233308</v>
       </c>
       <c r="C65">
-        <v>0.01358342412971449</v>
+        <v>-0.005492185821142874</v>
       </c>
       <c r="D65">
-        <v>0.01449270957863766</v>
+        <v>-0.05801879352141052</v>
       </c>
       <c r="E65">
-        <v>0.02025596263933507</v>
+        <v>0.01126809644633073</v>
       </c>
       <c r="F65">
-        <v>-0.01968571330286991</v>
+        <v>0.03221013873309106</v>
       </c>
       <c r="G65">
-        <v>-0.01124856259462681</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>-0.0009567089508756121</v>
+      </c>
+      <c r="H65">
+        <v>0.06609932085537033</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.04290844169815988</v>
+        <v>0.02337683992409402</v>
       </c>
       <c r="C66">
-        <v>0.03875001924507331</v>
+        <v>0.004999206930000287</v>
       </c>
       <c r="D66">
-        <v>0.03068489593397986</v>
+        <v>-0.08859070197009873</v>
       </c>
       <c r="E66">
-        <v>0.03607176880222453</v>
+        <v>-0.002608161216203365</v>
       </c>
       <c r="F66">
-        <v>-0.06154326003726125</v>
+        <v>0.03664451952339978</v>
       </c>
       <c r="G66">
-        <v>0.02335672859370718</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>-0.03530110456021435</v>
+      </c>
+      <c r="H66">
+        <v>0.0756453873954242</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.01490769308081544</v>
+        <v>0.04317478532161416</v>
       </c>
       <c r="C67">
-        <v>-0.003037469495809666</v>
+        <v>0.01954093273746988</v>
       </c>
       <c r="D67">
-        <v>0.01105033898853474</v>
+        <v>-0.003656601961209188</v>
       </c>
       <c r="E67">
-        <v>-0.03478868815686217</v>
+        <v>-0.004947166293434542</v>
       </c>
       <c r="F67">
-        <v>-0.02863364764549061</v>
+        <v>0.0154765574967271</v>
       </c>
       <c r="G67">
-        <v>-0.004976403429128774</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>-0.003807379618678345</v>
+      </c>
+      <c r="H67">
+        <v>0.03863783384289078</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.06616389954194303</v>
+        <v>0.1606779676091083</v>
       </c>
       <c r="C68">
-        <v>-0.01612727940791028</v>
+        <v>0.01780716635840848</v>
       </c>
       <c r="D68">
-        <v>-0.134210417750161</v>
+        <v>0.2197558335495446</v>
       </c>
       <c r="E68">
-        <v>-0.1419378731669571</v>
+        <v>-0.02078651529014192</v>
       </c>
       <c r="F68">
-        <v>-0.04630521701894529</v>
+        <v>-0.04702223092777537</v>
       </c>
       <c r="G68">
-        <v>-0.05686628978183356</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>-0.02165068575056238</v>
+      </c>
+      <c r="H68">
+        <v>-0.03904413905626121</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.07029872354471259</v>
+        <v>0.05842575783274247</v>
       </c>
       <c r="C69">
-        <v>0.03778460790703991</v>
+        <v>0.02831812038787497</v>
       </c>
       <c r="D69">
-        <v>0.009107870354337116</v>
+        <v>-0.04071546905985522</v>
       </c>
       <c r="E69">
-        <v>0.005882931076932448</v>
+        <v>-0.0009377765042659821</v>
       </c>
       <c r="F69">
-        <v>-0.01425408238055464</v>
+        <v>0.03153951285192883</v>
       </c>
       <c r="G69">
-        <v>0.08610923874584574</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>0.01450025884481389</v>
+      </c>
+      <c r="H69">
+        <v>0.004681511836984693</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,194 +2520,221 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.07447565591997603</v>
+        <v>0.1499576025508687</v>
       </c>
       <c r="C71">
-        <v>-0.03361684971053105</v>
+        <v>0.02506445643301667</v>
       </c>
       <c r="D71">
-        <v>-0.1149593810215403</v>
+        <v>0.1948048561509499</v>
       </c>
       <c r="E71">
-        <v>-0.1971968050507198</v>
+        <v>-0.02677295374750385</v>
       </c>
       <c r="F71">
-        <v>-0.05406679474787229</v>
+        <v>-0.05635118763468245</v>
       </c>
       <c r="G71">
-        <v>-0.007475839272133179</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>-0.02075823934971511</v>
+      </c>
+      <c r="H71">
+        <v>-0.03188026522593725</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1155654613692096</v>
+        <v>0.08096594152776893</v>
       </c>
       <c r="C72">
-        <v>0.08771100043179896</v>
+        <v>0.0387414754344452</v>
       </c>
       <c r="D72">
-        <v>-0.003146361304272116</v>
+        <v>-0.07766193532699994</v>
       </c>
       <c r="E72">
-        <v>0.01836661377825085</v>
+        <v>-0.007831071927666087</v>
       </c>
       <c r="F72">
-        <v>-0.1271465609186817</v>
+        <v>0.07809338047052593</v>
       </c>
       <c r="G72">
-        <v>-0.06491553160001989</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>-0.0558214229340204</v>
+      </c>
+      <c r="H72">
+        <v>0.1721491498097229</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2486060468149084</v>
+        <v>0.235884168436681</v>
       </c>
       <c r="C73">
-        <v>0.0348867292961564</v>
+        <v>0.0451673311155216</v>
       </c>
       <c r="D73">
-        <v>0.05979514354113283</v>
+        <v>-0.06095738276726922</v>
       </c>
       <c r="E73">
-        <v>-0.1695020790329944</v>
+        <v>-0.07883360486422698</v>
       </c>
       <c r="F73">
-        <v>-0.30325738562015</v>
+        <v>0.02935193917413652</v>
       </c>
       <c r="G73">
-        <v>-0.4262384768262176</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>-0.05058463145473469</v>
+      </c>
+      <c r="H73">
+        <v>0.5089720941641039</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1414048425735351</v>
+        <v>0.1168771081113747</v>
       </c>
       <c r="C74">
-        <v>0.04433533711744721</v>
+        <v>0.05168565129051103</v>
       </c>
       <c r="D74">
-        <v>-0.01615371117511764</v>
+        <v>-0.1052263100749867</v>
       </c>
       <c r="E74">
-        <v>0.03945676273764799</v>
+        <v>0.009965863422783957</v>
       </c>
       <c r="F74">
-        <v>0.07110375107158584</v>
+        <v>0.06192928968953192</v>
       </c>
       <c r="G74">
-        <v>-0.03099104900932554</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>0.05635903278714203</v>
+      </c>
+      <c r="H74">
+        <v>-0.03335006949084833</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.2330199869481871</v>
+        <v>0.2255715023732951</v>
       </c>
       <c r="C75">
-        <v>0.1552901497141872</v>
+        <v>0.1012575134512955</v>
       </c>
       <c r="D75">
-        <v>-0.02557688888147848</v>
+        <v>-0.1669464348162073</v>
       </c>
       <c r="E75">
-        <v>0.06944232827828339</v>
+        <v>-0.001921369953263793</v>
       </c>
       <c r="F75">
-        <v>0.1252167802818192</v>
+        <v>0.1482596620322852</v>
       </c>
       <c r="G75">
-        <v>-0.006475583391363058</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>0.1261637159727623</v>
+      </c>
+      <c r="H75">
+        <v>-0.1183535255447569</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.2798172911622354</v>
+        <v>0.19981321603487</v>
       </c>
       <c r="C76">
-        <v>0.1454364410516004</v>
+        <v>0.09461702776170558</v>
       </c>
       <c r="D76">
-        <v>-0.09195120241180599</v>
+        <v>-0.1601050401940011</v>
       </c>
       <c r="E76">
-        <v>0.09784013925539554</v>
+        <v>0.04941801764610271</v>
       </c>
       <c r="F76">
-        <v>0.1629974639625896</v>
+        <v>0.1434037854632031</v>
       </c>
       <c r="G76">
-        <v>0.001815376010248485</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>0.1209670324387831</v>
+      </c>
+      <c r="H76">
+        <v>-0.1253110738365874</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.1341973030277379</v>
+        <v>0.06775730551742573</v>
       </c>
       <c r="C77">
-        <v>-0.03216521294632566</v>
+        <v>0.007399804434091471</v>
       </c>
       <c r="D77">
-        <v>0.09067071947928794</v>
+        <v>-0.06437726082350781</v>
       </c>
       <c r="E77">
-        <v>0.06762308465349207</v>
+        <v>-0.01549793345518443</v>
       </c>
       <c r="F77">
-        <v>-0.1769891314368742</v>
+        <v>-0.03675641163795049</v>
       </c>
       <c r="G77">
-        <v>0.178490550951162</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>-0.1009550930941438</v>
+      </c>
+      <c r="H77">
+        <v>0.009420040284551739</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.06627027620644212</v>
+        <v>0.03853543898354077</v>
       </c>
       <c r="C78">
-        <v>0.02550421253600964</v>
+        <v>0.009777950841839047</v>
       </c>
       <c r="D78">
-        <v>0.02984526629813427</v>
+        <v>-0.04892483951975973</v>
       </c>
       <c r="E78">
-        <v>0.08992643304898044</v>
+        <v>0.008123966552135582</v>
       </c>
       <c r="F78">
-        <v>-0.07646498494653427</v>
+        <v>0.02039768843370123</v>
       </c>
       <c r="G78">
-        <v>0.02590880993350009</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>-0.05737393701982973</v>
+      </c>
+      <c r="H78">
+        <v>0.07131945531366174</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2517,56 +2754,65 @@
       <c r="G79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.1392174444860714</v>
+        <v>0.1388789829090822</v>
       </c>
       <c r="C80">
-        <v>-0.5795513928443213</v>
+        <v>0.03670545570799402</v>
       </c>
       <c r="D80">
-        <v>-0.5755916007278297</v>
+        <v>-0.04270067347815663</v>
       </c>
       <c r="E80">
-        <v>0.5139933538084602</v>
+        <v>0.9372549445278948</v>
       </c>
       <c r="F80">
-        <v>-0.08460582095455929</v>
+        <v>-0.2465836752823662</v>
       </c>
       <c r="G80">
-        <v>-0.1118549007219884</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>-0.1251127219979002</v>
+      </c>
+      <c r="H80">
+        <v>0.009484636718286189</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1714298214492921</v>
+        <v>0.1474524736880758</v>
       </c>
       <c r="C81">
-        <v>0.1076774338581542</v>
+        <v>0.06514061099432386</v>
       </c>
       <c r="D81">
-        <v>-0.04376851376173694</v>
+        <v>-0.1011244464218965</v>
       </c>
       <c r="E81">
-        <v>0.05417627221301817</v>
+        <v>0.01833972427954197</v>
       </c>
       <c r="F81">
-        <v>0.1343820201143162</v>
+        <v>0.0892890795407329</v>
       </c>
       <c r="G81">
-        <v>-0.02328538589820828</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>0.08255573544781848</v>
+      </c>
+      <c r="H81">
+        <v>-0.08235053129773716</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2586,33 +2832,39 @@
       <c r="G82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.04915237376173913</v>
+        <v>0.03257735628786235</v>
       </c>
       <c r="C83">
-        <v>0.0004043501510066609</v>
+        <v>0.005693497457869508</v>
       </c>
       <c r="D83">
-        <v>0.03938750243636028</v>
+        <v>-0.021359436923668</v>
       </c>
       <c r="E83">
-        <v>0.0153657618817425</v>
+        <v>-0.005471285124670878</v>
       </c>
       <c r="F83">
-        <v>-0.05595142349579528</v>
+        <v>0.002319269307848346</v>
       </c>
       <c r="G83">
-        <v>0.04307754522968271</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>-0.0401760867265883</v>
+      </c>
+      <c r="H83">
+        <v>0.04298695465234833</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2632,263 +2884,299 @@
       <c r="G84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.2541600691422371</v>
+        <v>0.2146439277139269</v>
       </c>
       <c r="C85">
-        <v>0.1382792695177023</v>
+        <v>0.08477713545553803</v>
       </c>
       <c r="D85">
-        <v>-0.04339283298757313</v>
+        <v>-0.1693744749188147</v>
       </c>
       <c r="E85">
-        <v>0.08189895830671483</v>
+        <v>0.004877121883834656</v>
       </c>
       <c r="F85">
-        <v>0.1231413542871429</v>
+        <v>0.1347098922786948</v>
       </c>
       <c r="G85">
-        <v>0.03574681375695841</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>0.1365226485159725</v>
+      </c>
+      <c r="H85">
+        <v>-0.08776656967737881</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.00226520415771933</v>
+        <v>0.02030253706368594</v>
       </c>
       <c r="C86">
-        <v>-0.006448372668232777</v>
+        <v>-0.0009520176833395669</v>
       </c>
       <c r="D86">
-        <v>0.02334630082285877</v>
+        <v>-0.005490258809305548</v>
       </c>
       <c r="E86">
-        <v>0.05276230500099926</v>
+        <v>-0.009059380176695843</v>
       </c>
       <c r="F86">
-        <v>-0.06564075268122684</v>
+        <v>-0.02068556420748337</v>
       </c>
       <c r="G86">
-        <v>0.01352385480780415</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>-0.06015848585312327</v>
+      </c>
+      <c r="H86">
+        <v>0.07847247217912093</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.03808407715952929</v>
+        <v>0.02650487367794913</v>
       </c>
       <c r="C87">
-        <v>-0.006930482704680489</v>
+        <v>0.001713232384006727</v>
       </c>
       <c r="D87">
-        <v>0.002691222109256576</v>
+        <v>-0.03328151689416346</v>
       </c>
       <c r="E87">
-        <v>0.03790444174304247</v>
+        <v>0.008871979840358561</v>
       </c>
       <c r="F87">
-        <v>-0.1104744077553601</v>
+        <v>0.006285074557853725</v>
       </c>
       <c r="G87">
-        <v>0.03582468308136884</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>-0.07607724780013798</v>
+      </c>
+      <c r="H87">
+        <v>0.07662112925942308</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.01020530789117756</v>
+        <v>0.03525372201413871</v>
       </c>
       <c r="C88">
-        <v>0.003558466571719912</v>
+        <v>-0.01171220864580435</v>
       </c>
       <c r="D88">
-        <v>-0.01595875377068062</v>
+        <v>-0.005531637021051883</v>
       </c>
       <c r="E88">
-        <v>-0.000597388811825606</v>
+        <v>0.008443659617152835</v>
       </c>
       <c r="F88">
-        <v>-0.002295413938875714</v>
+        <v>0.007420124875006941</v>
       </c>
       <c r="G88">
-        <v>0.05342361622414828</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>0.003017195893735535</v>
+      </c>
+      <c r="H88">
+        <v>0.01585360551202656</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.09253648662419924</v>
+        <v>0.2545901526404514</v>
       </c>
       <c r="C89">
-        <v>-0.04770443001385481</v>
+        <v>0.03954416455840253</v>
       </c>
       <c r="D89">
-        <v>-0.1628098852652843</v>
+        <v>0.3466359743095046</v>
       </c>
       <c r="E89">
-        <v>-0.2627472479773855</v>
+        <v>-0.04246588314417313</v>
       </c>
       <c r="F89">
-        <v>-0.1004186710945578</v>
+        <v>-0.05887523019783381</v>
       </c>
       <c r="G89">
-        <v>0.03193877378699875</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>0.02265794554512548</v>
+      </c>
+      <c r="H89">
+        <v>-0.01389579251997721</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.08257344524215</v>
+        <v>0.2048896366746304</v>
       </c>
       <c r="C90">
-        <v>-0.07194980058008443</v>
+        <v>0.03237723438456705</v>
       </c>
       <c r="D90">
-        <v>-0.2164606911354195</v>
+        <v>0.3047110440288094</v>
       </c>
       <c r="E90">
-        <v>-0.2674469463102767</v>
+        <v>-0.03273584403570168</v>
       </c>
       <c r="F90">
-        <v>-0.05622007585712898</v>
+        <v>-0.074303219886899</v>
       </c>
       <c r="G90">
-        <v>0.03333860636645306</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>0.02948641455584567</v>
+      </c>
+      <c r="H90">
+        <v>-0.07293450151659095</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.3102360868152176</v>
+        <v>0.2318986450755231</v>
       </c>
       <c r="C91">
-        <v>0.1526806676657854</v>
+        <v>0.1019632497263268</v>
       </c>
       <c r="D91">
-        <v>-0.03305459536309948</v>
+        <v>-0.1578869549223806</v>
       </c>
       <c r="E91">
-        <v>0.06370361194135583</v>
+        <v>0.003619969934258481</v>
       </c>
       <c r="F91">
-        <v>0.236272824436538</v>
+        <v>0.1407045340789421</v>
       </c>
       <c r="G91">
-        <v>-0.03681709241962247</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>0.1475062664412514</v>
+      </c>
+      <c r="H91">
+        <v>-0.1629116261832411</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.1754038572033689</v>
+        <v>0.2509243223579659</v>
       </c>
       <c r="C92">
-        <v>-0.0135573550886038</v>
+        <v>0.09518636320282621</v>
       </c>
       <c r="D92">
-        <v>-0.2975596952538728</v>
+        <v>0.2321624373465516</v>
       </c>
       <c r="E92">
-        <v>-0.3501849407557038</v>
+        <v>-0.01875337000694594</v>
       </c>
       <c r="F92">
-        <v>0.0812152550360985</v>
+        <v>-0.02557379668726259</v>
       </c>
       <c r="G92">
-        <v>0.5413765017482411</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>-0.01040457217795141</v>
+      </c>
+      <c r="H92">
+        <v>-0.1523797187591735</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.08751219024009579</v>
+        <v>0.2283543729244322</v>
       </c>
       <c r="C93">
-        <v>-0.07603289354951347</v>
+        <v>0.04401345399183127</v>
       </c>
       <c r="D93">
-        <v>-0.2400722095245438</v>
+        <v>0.3269831707102448</v>
       </c>
       <c r="E93">
-        <v>-0.3834375030667029</v>
+        <v>-0.057751176958111</v>
       </c>
       <c r="F93">
-        <v>-0.02176408165355244</v>
+        <v>-0.08426094359022228</v>
       </c>
       <c r="G93">
-        <v>-0.05057378083876538</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>0.02755193389465559</v>
+      </c>
+      <c r="H93">
+        <v>-0.01990944174790274</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.3022569381687699</v>
+        <v>0.255862290506776</v>
       </c>
       <c r="C94">
-        <v>0.2218453683656422</v>
+        <v>0.09298860505904422</v>
       </c>
       <c r="D94">
-        <v>-0.07916294547380286</v>
+        <v>-0.159169601133122</v>
       </c>
       <c r="E94">
-        <v>0.0768867312907799</v>
+        <v>-0.004609628460715889</v>
       </c>
       <c r="F94">
-        <v>0.2070972197390426</v>
+        <v>0.1915214823860393</v>
       </c>
       <c r="G94">
-        <v>-0.07401475042044077</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>0.1342232084230336</v>
+      </c>
+      <c r="H94">
+        <v>-0.1812022365139964</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.06564286327805498</v>
+        <v>0.0527454777723711</v>
       </c>
       <c r="C95">
-        <v>0.02989374473590568</v>
+        <v>0.0286568984959273</v>
       </c>
       <c r="D95">
-        <v>0.09491449467771187</v>
+        <v>-0.08548964879949111</v>
       </c>
       <c r="E95">
-        <v>0.06471959389728335</v>
+        <v>-0.08100011638356383</v>
       </c>
       <c r="F95">
-        <v>-0.007493105042226843</v>
+        <v>0.00585304819050626</v>
       </c>
       <c r="G95">
-        <v>0.1497229127368645</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>-0.02973968011821956</v>
+      </c>
+      <c r="H95">
+        <v>0.03972673612936503</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,10 +3196,13 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2931,33 +3222,39 @@
       <c r="G97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1859439461420698</v>
+        <v>0.1793334901107291</v>
       </c>
       <c r="C98">
-        <v>-0.005696466869695768</v>
+        <v>0.06718404812494866</v>
       </c>
       <c r="D98">
-        <v>0.03311698003156139</v>
+        <v>-0.04414231567445279</v>
       </c>
       <c r="E98">
-        <v>-0.09963684549054208</v>
+        <v>-0.04589296719821395</v>
       </c>
       <c r="F98">
-        <v>-0.1746497715021073</v>
+        <v>0.004383835086075942</v>
       </c>
       <c r="G98">
-        <v>-0.3591826705165506</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>-0.0770486140961073</v>
+      </c>
+      <c r="H98">
+        <v>0.3763844716178503</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2977,10 +3274,13 @@
       <c r="G99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,97 +3300,112 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.006923848597506291</v>
+        <v>0.01497538577515836</v>
       </c>
       <c r="C101">
-        <v>0.02313352125868879</v>
+        <v>-0.0007576704009429195</v>
       </c>
       <c r="D101">
-        <v>0.0188669327014783</v>
+        <v>-0.007516975906977167</v>
       </c>
       <c r="E101">
-        <v>0.09769104965784235</v>
+        <v>0.005636454384145906</v>
       </c>
       <c r="F101">
-        <v>-0.1447754233993078</v>
+        <v>0.01722223787609628</v>
       </c>
       <c r="G101">
-        <v>0.1849648492871783</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>-0.1086581893427774</v>
+      </c>
+      <c r="H101">
+        <v>-0.02790209624071988</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.1105610343555542</v>
+        <v>0.1034880968418715</v>
       </c>
       <c r="C102">
-        <v>0.06875192790797603</v>
+        <v>0.03344017697109709</v>
       </c>
       <c r="D102">
-        <v>0.0009548416642834109</v>
+        <v>-0.08291589607233273</v>
       </c>
       <c r="E102">
-        <v>0.05570849360216942</v>
+        <v>0.006137382984283662</v>
       </c>
       <c r="F102">
-        <v>0.1149876765547901</v>
+        <v>0.06869281826933417</v>
       </c>
       <c r="G102">
-        <v>-0.001460340979345216</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>0.07730627753053222</v>
+      </c>
+      <c r="H102">
+        <v>-0.06633412426523315</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>0.0310409461368168</v>
+        <v>0.01928673096353056</v>
       </c>
       <c r="C103">
-        <v>0.01751812830853691</v>
+        <v>0.007273142164542117</v>
       </c>
       <c r="D103">
-        <v>-0.00520793882175437</v>
+        <v>-0.01772024136094945</v>
       </c>
       <c r="E103">
-        <v>0.01583841812671487</v>
+        <v>0.01176209524276645</v>
       </c>
       <c r="F103">
-        <v>-0.008755756432791698</v>
+        <v>0.01333065610513248</v>
       </c>
       <c r="G103">
-        <v>0.01961428046167819</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>-0.0004983349053590353</v>
+      </c>
+      <c r="H103">
+        <v>-0.005638253103687365</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>0.2631207693145673</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>-0.9476913136174816</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>-0.01535645124141967</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>0.03554620553790049</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>0.1446186031142118</v>
       </c>
       <c r="G104">
-        <v>0</v>
+        <v>0.01254277869079574</v>
+      </c>
+      <c r="H104">
+        <v>-0.03902454643544286</v>
       </c>
     </row>
   </sheetData>
